--- a/BatteryEstimate/JiaqiWu_514_Sensor_BatteryEstimate.xlsx
+++ b/BatteryEstimate/JiaqiWu_514_Sensor_BatteryEstimate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wu/UW-MSTI/24Winter/Techin_514/week5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wu/UW-MSTI/24Winter/Techin_514/514_Project/BatteryEstimate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F2E57B-62A1-9D42-AC79-55FB8581A92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BD8673-26D4-7048-86BF-7B1B688A984C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System Parameters" sheetId="1" r:id="rId1"/>
@@ -482,6 +482,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -489,12 +490,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -708,20 +711,11 @@
     <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -731,6 +725,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1853,8 +1856,8 @@
   </sheetPr>
   <dimension ref="A2:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="111" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2239,7 +2242,7 @@
       </c>
       <c r="O26" s="15">
         <f t="shared" ref="O26:O28" si="0">$M$31/M26</f>
-        <v>13320</v>
+        <v>14800</v>
       </c>
       <c r="P26" s="14" t="s">
         <v>23</v>
@@ -2280,7 +2283,7 @@
       </c>
       <c r="O27" s="15">
         <f t="shared" si="0"/>
-        <v>7.9497708174178765</v>
+        <v>8.8330786860198618</v>
       </c>
       <c r="P27" s="14" t="s">
         <v>23</v>
@@ -2321,7 +2324,7 @@
       </c>
       <c r="O28" s="15">
         <f t="shared" si="0"/>
-        <v>15.199926967317875</v>
+        <v>16.888807741464305</v>
       </c>
       <c r="P28" s="14" t="s">
         <v>23</v>
@@ -2362,8 +2365,7 @@
       <c r="I31" s="6"/>
       <c r="K31" s="7"/>
       <c r="M31" s="9">
-        <f>B32*B33*B34</f>
-        <v>3330</v>
+        <v>3700</v>
       </c>
       <c r="N31" s="9" t="s">
         <v>29</v>
@@ -2401,7 +2403,7 @@
       </c>
       <c r="M33" s="17">
         <f>M31/(E30*M26+F30*M27+G30*M28)</f>
-        <v>1.5721043537376429</v>
+        <v>1.7467826152640475</v>
       </c>
       <c r="N33" s="16" t="s">
         <v>35</v>
@@ -2422,7 +2424,7 @@
       </c>
       <c r="M34" s="17">
         <f>M33*24</f>
-        <v>37.730504489703428</v>
+        <v>41.922782766337143</v>
       </c>
       <c r="N34" s="16" t="s">
         <v>23</v>
@@ -2453,49 +2455,49 @@
       </c>
     </row>
     <row r="39" spans="1:17" ht="56" x14ac:dyDescent="0.15">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
     </row>
     <row r="40" spans="1:17" ht="56" x14ac:dyDescent="0.15">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
     </row>
     <row r="41" spans="1:17" ht="113" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6706,124 +6708,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="30" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="30" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="30" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="31" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="31" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="33" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="31" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="33" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="31" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
